--- a/target/classes/examples/装置密封点.xlsx
+++ b/target/classes/examples/装置密封点.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_A6A652A53D289AB048F518121C54C0E1A8ECCB68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E46A7352-4AFB-4479-B42C-C2A27C7266E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3604318F-ADAE-4382-94F0-08F003C76AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -640,7 +640,7 @@
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -705,7 +705,7 @@
         <v>2015</v>
       </c>
       <c r="C3">
-        <v>650106</v>
+        <v>210102</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>2015</v>
       </c>
       <c r="C4">
-        <v>652323</v>
+        <v>210102</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -835,7 +835,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>650106</v>
+        <v>210103</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
